--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2549.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2549.xlsx
@@ -354,7 +354,7 @@
         <v>2.112615371278019</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.358963243914815</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2549.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2549.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.258911423346539</v>
+        <v>2.013453483581543</v>
       </c>
       <c r="B1">
-        <v>2.112615371278019</v>
+        <v>2.15196418762207</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>7.952270984649658</v>
       </c>
       <c r="D1">
-        <v>1.358963243914815</v>
+        <v>0.9781984090805054</v>
       </c>
       <c r="E1">
-        <v>0.9296182836716192</v>
+        <v>0.5209988355636597</v>
       </c>
     </row>
   </sheetData>
